--- a/download/Workbook.xlsx
+++ b/download/Workbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuchun/Javadone/learn/web_01/sp_bt_01/download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuchun/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>姓名</t>
   </si>
@@ -32,13 +32,10 @@
     <t>年龄</t>
   </si>
   <si>
-    <t>出生日期</t>
-  </si>
-  <si>
     <t>张飞</t>
   </si>
   <si>
-    <t>1992-11-12</t>
+    <t>关羽</t>
   </si>
 </sst>
 </file>
@@ -74,9 +71,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,39 +350,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
